--- a/Spell Number.xlsx
+++ b/Spell Number.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ayush\Data\Gen Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Spell-Number\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0C8E15-189B-4B97-877B-5BA206F88A1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B3ACCE-E6A2-41B6-90D6-04D6137D8E4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FF3D4D1C-66F5-4202-BAC1-3857E6F10B9C}"/>
   </bookViews>
@@ -653,9 +653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36FED13-DC66-4399-B449-925EAAC007DC}">
   <dimension ref="A3:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1864,7 +1862,7 @@
     <row r="142" spans="2:3" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="143" spans="2:3" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Pjita8WA7WSoY5RFKOWW1gamtAlGu68SS02W1yXYHi8n5zuk+Q2zwFnI8OQ+mWtj7mBxiBfxrLLLlD3rqPZXvg==" saltValue="eYxvdWmWNVNmyCdAJow4nQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{B38D4939-ECE5-4EC0-B987-82E4587F9908}">
       <formula1>"R # P #,R # # P,# R # P"</formula1>
